--- a/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="288">
   <si>
     <t>index</t>
   </si>
@@ -843,9 +843,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>EDU_LEVEL_P</t>
-  </si>
-  <si>
     <t>parental data</t>
   </si>
   <si>
@@ -870,13 +867,22 @@
     <t>SMOKE_ST_HH</t>
   </si>
   <si>
-    <t>Ice Tea in Softdrinks</t>
-  </si>
-  <si>
     <t>only self added art. Sweeteners, no light products etc.</t>
   </si>
   <si>
     <t>Some baking mixes included, but not ready-to-eat (components missing here)</t>
+  </si>
+  <si>
+    <t>m_schulab, v_schulab, m_berufsab, v_schulab</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>would be the same variable as LEGUMES_TOT_03</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C128" sqref="C2:C128"/>
+    <sheetView tabSelected="1" topLeftCell="D108" workbookViewId="0">
+      <selection activeCell="D126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,89 +1379,86 @@
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1556,7 +1559,7 @@
         <v>271</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1589,7 +1592,7 @@
         <v>271</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1622,7 +1625,7 @@
         <v>271</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1655,7 +1658,7 @@
         <v>271</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1688,7 +1691,7 @@
         <v>271</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1721,7 +1724,7 @@
         <v>271</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1754,7 +1757,7 @@
         <v>271</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1787,7 +1790,7 @@
         <v>271</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1820,7 +1823,7 @@
         <v>271</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1853,7 +1856,7 @@
         <v>271</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1886,7 +1889,7 @@
         <v>271</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1919,7 +1922,7 @@
         <v>271</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1952,7 +1955,7 @@
         <v>271</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1985,30 +1988,42 @@
         <v>271</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>280</v>
+      <c r="G24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2041,7 +2056,7 @@
         <v>271</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2074,7 +2089,7 @@
         <v>271</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2107,7 +2122,7 @@
         <v>271</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -2140,7 +2155,7 @@
         <v>271</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2173,7 +2188,7 @@
         <v>271</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2206,7 +2221,7 @@
         <v>271</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2239,7 +2254,7 @@
         <v>271</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2272,7 +2287,7 @@
         <v>271</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2305,7 +2320,7 @@
         <v>271</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2338,7 +2353,7 @@
         <v>271</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2371,7 +2386,7 @@
         <v>271</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2404,7 +2419,7 @@
         <v>271</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2437,7 +2452,7 @@
         <v>271</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2470,7 +2485,7 @@
         <v>271</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2503,7 +2518,7 @@
         <v>271</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2536,7 +2551,7 @@
         <v>271</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2569,7 +2584,7 @@
         <v>271</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2602,7 +2617,7 @@
         <v>271</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2635,7 +2650,7 @@
         <v>271</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2668,7 +2683,7 @@
         <v>271</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2701,7 +2716,7 @@
         <v>271</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2734,7 +2749,7 @@
         <v>271</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2767,7 +2782,7 @@
         <v>271</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2800,7 +2815,7 @@
         <v>271</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2833,7 +2848,7 @@
         <v>271</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2866,7 +2881,7 @@
         <v>271</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2899,7 +2914,7 @@
         <v>271</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2932,7 +2947,7 @@
         <v>271</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2965,7 +2980,7 @@
         <v>271</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2998,7 +3013,7 @@
         <v>271</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3031,7 +3046,7 @@
         <v>271</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3064,7 +3079,7 @@
         <v>271</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -3097,7 +3112,7 @@
         <v>271</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3130,7 +3145,7 @@
         <v>271</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3163,7 +3178,7 @@
         <v>271</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3196,7 +3211,7 @@
         <v>271</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3229,7 +3244,7 @@
         <v>271</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3262,7 +3277,7 @@
         <v>271</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3295,7 +3310,7 @@
         <v>271</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3328,7 +3343,7 @@
         <v>271</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3361,7 +3376,7 @@
         <v>271</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3394,7 +3409,7 @@
         <v>271</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3427,7 +3442,7 @@
         <v>271</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3460,7 +3475,7 @@
         <v>271</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -3493,7 +3508,7 @@
         <v>271</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3526,7 +3541,7 @@
         <v>271</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3559,7 +3574,7 @@
         <v>271</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3592,7 +3607,7 @@
         <v>271</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3625,7 +3640,7 @@
         <v>271</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3658,7 +3673,7 @@
         <v>271</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3691,7 +3706,7 @@
         <v>271</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3724,7 +3739,7 @@
         <v>271</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3757,7 +3772,7 @@
         <v>271</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3790,7 +3805,7 @@
         <v>271</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3823,7 +3838,7 @@
         <v>271</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3856,7 +3871,7 @@
         <v>271</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3889,7 +3904,7 @@
         <v>271</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3922,7 +3937,7 @@
         <v>271</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3955,7 +3970,7 @@
         <v>271</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3988,7 +4003,7 @@
         <v>271</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -4021,7 +4036,7 @@
         <v>271</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -4054,7 +4069,7 @@
         <v>271</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4087,7 +4102,7 @@
         <v>271</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4120,7 +4135,7 @@
         <v>271</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4153,7 +4168,7 @@
         <v>271</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4186,42 +4201,42 @@
         <v>271</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="D91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>280</v>
+      <c r="G91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4254,7 +4269,7 @@
         <v>271</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4287,7 +4302,7 @@
         <v>271</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4320,7 +4335,7 @@
         <v>271</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4353,7 +4368,7 @@
         <v>271</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4386,7 +4401,7 @@
         <v>271</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4419,7 +4434,7 @@
         <v>271</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4452,42 +4467,39 @@
         <v>271</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="4" t="s">
+      <c r="D99" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>277</v>
+      <c r="G99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4520,7 +4532,7 @@
         <v>271</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -4553,7 +4565,7 @@
         <v>271</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -4586,7 +4598,7 @@
         <v>271</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -4619,7 +4631,7 @@
         <v>271</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -4652,7 +4664,7 @@
         <v>271</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -4685,7 +4697,7 @@
         <v>271</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -4718,7 +4730,7 @@
         <v>271</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -4751,7 +4763,7 @@
         <v>271</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -4784,7 +4796,7 @@
         <v>271</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -4817,7 +4829,7 @@
         <v>271</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -4850,7 +4862,7 @@
         <v>271</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -4883,7 +4895,7 @@
         <v>271</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -4916,7 +4928,7 @@
         <v>271</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -4949,7 +4961,7 @@
         <v>271</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -4982,7 +4994,7 @@
         <v>271</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -5015,7 +5027,7 @@
         <v>271</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -5048,7 +5060,7 @@
         <v>271</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -5081,7 +5093,7 @@
         <v>271</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -5114,7 +5126,7 @@
         <v>271</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -5147,7 +5159,7 @@
         <v>271</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -5180,7 +5192,7 @@
         <v>271</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -5213,7 +5225,7 @@
         <v>271</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -5246,7 +5258,7 @@
         <v>271</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -5279,7 +5291,7 @@
         <v>271</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -5312,7 +5324,7 @@
         <v>271</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -5345,42 +5357,42 @@
         <v>271</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="4" t="s">
+      <c r="D126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J126" s="4" t="s">
+      <c r="G126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -5413,7 +5425,7 @@
         <v>271</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -5446,7 +5458,7 @@
         <v>271</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -5468,5 +5480,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545390A8-E807-4E88-856D-14D50E6B0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="293">
   <si>
     <t>index</t>
   </si>
@@ -78,9 +79,6 @@
     <t>EDU_LEVEL</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>TOT_PA_QX</t>
   </si>
   <si>
@@ -873,9 +871,6 @@
     <t>Some baking mixes included, but not ready-to-eat (components missing here)</t>
   </si>
   <si>
-    <t>m_schulab, v_schulab, m_berufsab, v_schulab</t>
-  </si>
-  <si>
     <t>impossible</t>
   </si>
   <si>
@@ -883,13 +878,41 @@
   </si>
   <si>
     <t>would be the same variable as LEGUMES_TOT_03</t>
+  </si>
+  <si>
+    <t>id_creation</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>case_when(
+  m_berufab == 5 | v_berufab == 5 ~ 7,
+  m_berufab %in% c(3, 4) | v_berufab %in% c(3, 4) ~ 6,
+  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 5,
+  m_schulab %in% c(3, 4) | v_schulab %in% c(3, 4) ~ 3,
+  m_schulab %in% c(1, 2) | v_schulab %in% c(1, 2) ~ 2,
+  TRUE ~ NA_real_
+  )</t>
+  </si>
+  <si>
+    <t>m_schulab;v_schulab;m_berufab;v_berufab;</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +941,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -939,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,9 +976,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,25 +1262,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D108" workbookViewId="0">
-      <selection activeCell="D126" sqref="A126:XFD126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="22.36328125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1289,14 +1326,29 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1307,29 +1359,29 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1340,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -1349,4133 +1401,4152 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D106" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D108" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="D109" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D110" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D111" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="D113" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="D114" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D115" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D116" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D121" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D126" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="D129" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
+        <v>272</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H129" s="4">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545390A8-E807-4E88-856D-14D50E6B0869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520605E8-3601-49FF-96D8-D6FFC3541D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -892,20 +892,21 @@
     <t>case_when</t>
   </si>
   <si>
+    <t>m_schulab;v_schulab;m_berufab;v_berufab;</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
+  </si>
+  <si>
     <t>case_when(
   m_berufab == 5 | v_berufab == 5 ~ 7,
   m_berufab %in% c(3, 4) | v_berufab %in% c(3, 4) ~ 6,
-  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 5,
+  m_berufab %in% c(1, 2) | v_berufab %in% c(1, 2) ~ 4,
   m_schulab %in% c(3, 4) | v_schulab %in% c(3, 4) ~ 3,
   m_schulab %in% c(1, 2) | v_schulab %in% c(1, 2) ~ 2,
+  m_schulab == 5 | v_schulab == 5 | m_berufab %in% c(6, 7, 8)| v_berufab %in% c(6, 7, 8) ~ 9,
   TRUE ~ NA_real_
-  )</t>
-  </si>
-  <si>
-    <t>m_schulab;v_schulab;m_berufab;v_berufab;</t>
-  </si>
-  <si>
-    <t>Highest level of education [ISCED 2011]</t>
+)</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>272</v>
@@ -1431,13 +1432,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>289</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>273</v>
@@ -5539,7 +5540,7 @@
         <v>288</v>
       </c>
       <c r="H129" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="2" t="s">

--- a/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_DONALD_P1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520605E8-3601-49FF-96D8-D6FFC3541D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0970B2A-2293-4987-9F82-F85A236B415D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="295">
   <si>
     <t>index</t>
   </si>
@@ -907,6 +907,12 @@
   m_schulab == 5 | v_schulab == 5 | m_berufab %in% c(6, 7, 8)| v_berufab %in% c(6, 7, 8) ~ 9,
   TRUE ~ NA_real_
 )</t>
+  </si>
+  <si>
+    <t>recode</t>
+  </si>
+  <si>
+    <t>recode(1=3;0=1;)</t>
   </si>
 </sst>
 </file>
@@ -986,7 +992,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,10 +1273,10 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="53.140625" customWidth="1"/>
@@ -1501,11 +1507,11 @@
       <c r="F7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>269</v>
+      <c r="G7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>279</v>
